--- a/pkg/vignettes/tslabels.xlsx
+++ b/pkg/vignettes/tslabels.xlsx
@@ -14,22 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>6.83</t>
-  </si>
-  <si>
-    <t>19.38</t>
-  </si>
-  <si>
-    <t>19.58</t>
-  </si>
-  <si>
-    <t>3.84</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -55,80 +40,48 @@
     <t>bbp</t>
   </si>
   <si>
-    <t>6.98</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>6.21</t>
-  </si>
-  <si>
     <t>taxes</t>
   </si>
   <si>
     <t>bet_wn</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>clt_wn</t>
   </si>
   <si>
     <t>expenses</t>
   </si>
   <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>19.8</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
     <t>hl__hr</t>
   </si>
   <si>
     <t>productivity</t>
   </si>
   <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
     <t>a__mn_</t>
   </si>
   <si>
     <t>labour</t>
   </si>
   <si>
-    <t>19.83</t>
-  </si>
-  <si>
-    <t>19.54</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,9 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -463,7 +419,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,122 +430,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.34</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>23.68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19.38</v>
+      </c>
+      <c r="E4" s="2">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19.38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19.690000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/pkg/vignettes/tslabels.xlsx
+++ b/pkg/vignettes/tslabels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>labour</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,9 +458,7 @@
       <c r="D2" s="2">
         <v>6.8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>6.71</v>
       </c>
